--- a/biology/Médecine/Giovanni_Zecchi/Giovanni_Zecchi.xlsx
+++ b/biology/Médecine/Giovanni_Zecchi/Giovanni_Zecchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Zecchi, en latin Zecchius, (Bologne 1533 - Rome 2 décembre 1601) est un médecin italien du XVIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Zecchi nait à Bologne, en 1533. Il enseigne la médecine en 1560, à l’université de sa ville natale, avec une grande réputation. Le cardinal Alessandro Damasceni Peretti l’ayant emmené à Rome, en 1580, pour y donner des leçons au Collège de la Sapience, les curateurs de l’académie de Bologne décident qu’il ne serait pas remplacé dans sa chaire, et qu’il continuerait à jouir de son traitement pendant tout le temps que durerait son absence. Au bout de six ans, Zecchi vient reprendre sa chaire à Bologne (1586). En 1588, il repart à Rome, où il reçoit, avec des lettres de citoyen, le titre d’archiatre ou premier médecin de l’État pontifical, et après la mort de Sixte V (1590), il est nommé médecin des conclaves. On le consulte des diverses parties de l’Italie sur tous les cas embarrassants qui se présentent. Dans une dispute qui s’est élevée entre les médecins de Rome et ceux de Naples au sujet de la méthode curative de la fièvre, il met d'accord les parties. Giovanni Zecchi meurt à Rome, en 1601.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De aquarum porrectanarum usu atque præstantia tractatus, Bologne, 1576, in-4° ;
 In primam Hippocratis aphorismorum sectionem dilucidissimæ lectiones ; quibus accedunt tractatus quatuor : de purgatione ; de sanguinis missione ; de criticis diebus ; ac de morbo gallico, ibid., 1586, in-4°; 1629, même format. Scipione Mercuri, l’un des élèves de Zecchi et depuis religieux dominicain, fut l’éditeur de cet ouvrage, qu’il adressa par une épître à Étienne Báthory, roi de Pologne.
